--- a/Team-Data/2012-13/3-1-2012-13.xlsx
+++ b/Team-Data/2012-13/3-1-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.579</v>
+        <v>0.589</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>9.1</v>
@@ -696,16 +763,16 @@
         <v>23.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O2" t="n">
         <v>13.8</v>
       </c>
       <c r="P2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R2" t="n">
         <v>9.4</v>
@@ -714,19 +781,19 @@
         <v>31.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
@@ -735,16 +802,16 @@
         <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -759,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -792,19 +859,19 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.534</v>
+        <v>0.526</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
@@ -866,34 +933,34 @@
         <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O3" t="n">
         <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
         <v>39.9</v>
@@ -905,28 +972,28 @@
         <v>14.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
         <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>21.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -941,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>9</v>
@@ -953,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
         <v>24</v>
@@ -962,40 +1029,40 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.576</v>
+        <v>0.586</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1057,40 +1124,40 @@
         <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P4" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R4" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>4.7</v>
@@ -1099,19 +1166,19 @@
         <v>18.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
         <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1141,13 +1208,13 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>8</v>
@@ -1162,25 +1229,25 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>0.224</v>
+        <v>0.228</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J5" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
         <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S5" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T5" t="n">
-        <v>40.8</v>
+        <v>41.1</v>
       </c>
       <c r="U5" t="n">
         <v>18.9</v>
@@ -1269,7 +1336,7 @@
         <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>6.3</v>
@@ -1284,13 +1351,13 @@
         <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.2</v>
+        <v>93.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
@@ -1326,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="AP5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1335,10 +1402,10 @@
         <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1514,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>13</v>
@@ -1526,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,37 +1661,37 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
         <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R7" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S7" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U7" t="n">
         <v>20.5</v>
@@ -1633,7 +1700,7 @@
         <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>3.8</v>
@@ -1648,22 +1715,22 @@
         <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1684,16 +1751,16 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1711,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1726,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.448</v>
+        <v>0.439</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
         <v>7.2</v>
@@ -1788,34 +1855,34 @@
         <v>19.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O8" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
         <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
         <v>14.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
         <v>5.5</v>
@@ -1833,13 +1900,13 @@
         <v>101</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>19</v>
@@ -1851,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
         <v>4</v>
@@ -1869,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,34 +1948,34 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1958,10 +2025,10 @@
         <v>40.5</v>
       </c>
       <c r="J9" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
@@ -1973,43 +2040,43 @@
         <v>0.339</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T9" t="n">
         <v>45.1</v>
       </c>
       <c r="U9" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
         <v>20.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
         <v>105.5</v>
@@ -2021,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -2039,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.377</v>
+        <v>0.383</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2155,13 +2222,13 @@
         <v>0.363</v>
       </c>
       <c r="O10" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P10" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.694</v>
+        <v>0.695</v>
       </c>
       <c r="R10" t="n">
         <v>12.4</v>
@@ -2173,22 +2240,22 @@
         <v>43.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>6.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
         <v>20.5</v>
@@ -2215,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -2227,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>11</v>
@@ -2248,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
         <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.394</v>
+        <v>0.398</v>
       </c>
       <c r="O11" t="n">
         <v>17.3</v>
@@ -2343,22 +2410,22 @@
         <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2376,22 +2443,22 @@
         <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
@@ -2400,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2433,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2451,13 +2518,13 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>0.533</v>
+        <v>0.525</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,64 +2571,64 @@
         <v>38.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L12" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="M12" t="n">
         <v>28.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
         <v>18.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
         <v>23.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
         <v>19.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.6</v>
+        <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
@@ -2582,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2615,13 +2682,13 @@
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n">
         <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,10 +2753,10 @@
         <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2701,16 +2768,16 @@
         <v>0.354</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
         <v>22.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R13" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
         <v>33</v>
@@ -2722,31 +2789,31 @@
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB13" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2767,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2776,19 +2843,19 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2877,28 +2944,28 @@
         <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
         <v>16.7</v>
       </c>
       <c r="P14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.703</v>
+        <v>0.705</v>
       </c>
       <c r="R14" t="n">
         <v>11.5</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U14" t="n">
         <v>23.4</v>
@@ -2913,7 +2980,7 @@
         <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
         <v>20.9</v>
@@ -2925,7 +2992,7 @@
         <v>100.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,13 +3010,13 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2970,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>19</v>
@@ -2979,10 +3046,10 @@
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3125,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -3167,7 +3234,7 @@
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
         <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667</v>
+        <v>0.679</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,13 +3299,13 @@
         <v>36.1</v>
       </c>
       <c r="J16" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
         <v>13.6</v>
@@ -3250,19 +3317,19 @@
         <v>16.4</v>
       </c>
       <c r="P16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S16" t="n">
         <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
@@ -3271,16 +3338,16 @@
         <v>14.7</v>
       </c>
       <c r="W16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X16" t="n">
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
         <v>19.8</v>
@@ -3289,16 +3356,16 @@
         <v>93.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>5</v>
@@ -3325,19 +3392,19 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
@@ -3346,13 +3413,13 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
@@ -3361,13 +3428,13 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.496</v>
+        <v>0.497</v>
       </c>
       <c r="L17" t="n">
         <v>8.300000000000001</v>
@@ -3426,19 +3493,19 @@
         <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S17" t="n">
         <v>30.2</v>
@@ -3450,13 +3517,13 @@
         <v>22.6</v>
       </c>
       <c r="V17" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W17" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
@@ -3465,19 +3532,19 @@
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC17" t="n">
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3501,22 +3568,22 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
       </c>
       <c r="AR17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
         <v>20</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3671,22 +3738,22 @@
         <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3713,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3874,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3886,13 +3953,13 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
         <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3966,7 +4033,7 @@
         <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
         <v>18.2</v>
@@ -3975,25 +4042,25 @@
         <v>0.371</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S20" t="n">
         <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
         <v>14.3</v>
@@ -4002,22 +4069,22 @@
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
         <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
         <v>3</v>
@@ -4026,16 +4093,16 @@
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4062,25 +4129,25 @@
         <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4092,10 +4159,10 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0.636</v>
+        <v>0.63</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4148,34 +4215,34 @@
         <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="M21" t="n">
         <v>29.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O21" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
         <v>41.3</v>
       </c>
       <c r="U21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V21" t="n">
         <v>11.7</v>
@@ -4190,19 +4257,19 @@
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA21" t="n">
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4238,13 +4305,13 @@
         <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
         <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.724</v>
+        <v>0.737</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
@@ -4336,31 +4403,31 @@
         <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O22" t="n">
         <v>22.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.833</v>
+        <v>0.836</v>
       </c>
       <c r="R22" t="n">
         <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8.4</v>
@@ -4375,19 +4442,19 @@
         <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
@@ -4441,13 +4508,13 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>0.271</v>
+        <v>0.276</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N23" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O23" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="P23" t="n">
         <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
         <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,10 +4648,10 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4620,25 +4687,25 @@
         <v>4</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
@@ -4757,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
@@ -4808,7 +4875,7 @@
         <v>23</v>
       </c>
       <c r="AX24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
         <v>12</v>
@@ -4817,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
         <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
@@ -4870,28 +4937,28 @@
         <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.442</v>
       </c>
       <c r="L25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.328</v>
+        <v>0.325</v>
       </c>
       <c r="O25" t="n">
         <v>14.6</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
         <v>11.5</v>
@@ -4903,22 +4970,22 @@
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W25" t="n">
         <v>7.7</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y25" t="n">
         <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA25" t="n">
         <v>18.4</v>
@@ -4927,7 +4994,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD25" t="n">
         <v>3</v>
@@ -4936,10 +5003,10 @@
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -4963,16 +5030,16 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
@@ -4984,7 +5051,7 @@
         <v>14</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,10 +5191,10 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
         <v>14</v>
@@ -5145,13 +5212,13 @@
         <v>26</v>
       </c>
       <c r="AO26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP26" t="n">
         <v>22</v>
       </c>
-      <c r="AP26" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
         <v>18</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,7 +5251,7 @@
         <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5234,7 +5301,7 @@
         <v>36.8</v>
       </c>
       <c r="J27" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.441</v>
@@ -5243,7 +5310,7 @@
         <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N27" t="n">
         <v>0.365</v>
@@ -5252,58 +5319,58 @@
         <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R27" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.2</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y27" t="n">
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.1</v>
+        <v>-6.7</v>
       </c>
       <c r="AD27" t="n">
         <v>3</v>
       </c>
       <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG27" t="n">
         <v>25</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
@@ -5315,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
         <v>16</v>
@@ -5348,13 +5415,13 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J28" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
@@ -5428,7 +5495,7 @@
         <v>22.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O28" t="n">
         <v>17.2</v>
@@ -5437,7 +5504,7 @@
         <v>21.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R28" t="n">
         <v>7.9</v>
@@ -5449,13 +5516,13 @@
         <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
@@ -5464,16 +5531,16 @@
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA28" t="n">
         <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.7</v>
+        <v>104.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>3</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5524,19 +5591,19 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -5580,34 +5647,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="H29" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K29" t="n">
         <v>0.441</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.349</v>
@@ -5619,25 +5686,25 @@
         <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T29" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V29" t="n">
         <v>13.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
@@ -5649,25 +5716,25 @@
         <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5679,16 +5746,16 @@
         <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>9</v>
@@ -5697,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>21</v>
@@ -5706,7 +5773,7 @@
         <v>28</v>
       </c>
       <c r="AT29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>20</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
         <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.542</v>
+        <v>0.534</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,7 +5847,7 @@
         <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.452</v>
@@ -5792,43 +5859,43 @@
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P30" t="n">
         <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
         <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
@@ -5837,10 +5904,10 @@
         <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5855,7 +5922,7 @@
         <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
@@ -5879,22 +5946,22 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5962,7 +6029,7 @@
         <v>35.4</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
         <v>0.43</v>
@@ -5971,19 +6038,19 @@
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O31" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P31" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R31" t="n">
         <v>10.7</v>
@@ -5995,7 +6062,7 @@
         <v>43.2</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V31" t="n">
         <v>15.5</v>
@@ -6010,10 +6077,10 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
         <v>92</v>
@@ -6022,7 +6089,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6049,19 +6116,19 @@
         <v>18</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>23</v>
@@ -6085,7 +6152,7 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>19</v>
@@ -6097,7 +6164,7 @@
         <v>29</v>
       </c>
       <c r="BC31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-1-2012-13</t>
+          <t>2013-03-01</t>
         </is>
       </c>
     </row>
